--- a/biology/Histoire de la zoologie et de la botanique/John_Tradescant_l'Ancien/John_Tradescant_l'Ancien.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/John_Tradescant_l'Ancien/John_Tradescant_l'Ancien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>John_Tradescant_l%27Ancien</t>
+          <t>John_Tradescant_l'Ancien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Tradescant l'Ancien est un naturaliste, jardinier, voyageur et collectionneur britannique, né vers 1570 probablement dans le Suffolk et mort le 15 ou 16 avril 1638.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>John_Tradescant_l%27Ancien</t>
+          <t>John_Tradescant_l'Ancien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il commence sa carrière de jardinier auprès du comte de Salisbury (1563-1612), trésorier de la couronne, à Hatfield House. Le comte l’envoie aux Pays-Bas pour y rechercher des arbres fruitiers. Plus tard, il devient le jardinier de George Villiers (1592-1628), premier duc de Buckingham. Son nom a été donné à la Misère tricolore
 Il fait alors plusieurs voyages notamment dans le nord de la Russie en 1618, au Moyen-Orient et en Algérie, afin d’y récolter des bulbes et d’autres plantes ainsi que pour enrichir son cabinet de curiosités.
